--- a/team_specific_matrix/Wilkes_A.xlsx
+++ b/team_specific_matrix/Wilkes_A.xlsx
@@ -501,7 +501,7 @@
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0.125</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>0.25</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1176470588235294</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05882352941176471</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1764705882352941</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2941176470588235</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="R8">
-        <v>0.05882352941176471</v>
+        <v>0.05</v>
       </c>
       <c r="S8">
-        <v>0.2941176470588235</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.7142857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02127659574468085</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06382978723404255</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.148936170212766</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02127659574468085</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.148936170212766</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="R10">
-        <v>0.0851063829787234</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="S10">
-        <v>0.5106382978723404</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1111111111111111</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K11">
         <v>0.2222222222222222</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.4</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.3333333333333333</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.1111111111111111</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2222222222222222</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K16">
-        <v>0.4</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.25</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="I17">
-        <v>0.08333333333333333</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J17">
-        <v>0.4166666666666667</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1636363636363636</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="I19">
-        <v>0.1090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="J19">
-        <v>0.4181818181818182</v>
+        <v>0.35</v>
       </c>
       <c r="K19">
-        <v>0.07272727272727272</v>
+        <v>0.1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03636363636363636</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07272727272727272</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1272727272727273</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
   </sheetData>
